--- a/www/IndicatorsPerCountry/Jamaica_GDPperCapita_TerritorialRef_1962_2012_CCode_388.xlsx
+++ b/www/IndicatorsPerCountry/Jamaica_GDPperCapita_TerritorialRef_1962_2012_CCode_388.xlsx
@@ -297,13 +297,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Jamaica_GDPperCapita_TerritorialRef_1962_2012_CCode_388.xlsx
+++ b/www/IndicatorsPerCountry/Jamaica_GDPperCapita_TerritorialRef_1962_2012_CCode_388.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="103">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,238 +36,256 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>700.748129676</t>
+    <t>1117</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>543.859649123</t>
-  </si>
-  <si>
-    <t>537.127064008</t>
-  </si>
-  <si>
-    <t>530.486051194</t>
-  </si>
-  <si>
-    <t>541.504596264</t>
-  </si>
-  <si>
-    <t>552.775381076</t>
-  </si>
-  <si>
-    <t>580.957484915</t>
-  </si>
-  <si>
-    <t>610.727638769</t>
-  </si>
-  <si>
-    <t>676.151403961</t>
-  </si>
-  <si>
-    <t>699.884958297</t>
-  </si>
-  <si>
-    <t>723.616076783</t>
-  </si>
-  <si>
-    <t>972.484952709</t>
-  </si>
-  <si>
-    <t>970.494417863</t>
-  </si>
-  <si>
-    <t>1149.71977582</t>
-  </si>
-  <si>
-    <t>1649.46070878</t>
-  </si>
-  <si>
-    <t>1512.43406179</t>
-  </si>
-  <si>
-    <t>1326.78487595</t>
-  </si>
-  <si>
-    <t>1412.19323926</t>
-  </si>
-  <si>
-    <t>1504.10737013</t>
-  </si>
-  <si>
-    <t>1691.06590387</t>
-  </si>
-  <si>
-    <t>1858.15472358</t>
-  </si>
-  <si>
-    <t>2020.41234413</t>
-  </si>
-  <si>
-    <t>2190.10248514</t>
-  </si>
-  <si>
-    <t>2468.25919001</t>
-  </si>
-  <si>
-    <t>2458.23899652</t>
-  </si>
-  <si>
-    <t>2541.40571504</t>
-  </si>
-  <si>
-    <t>2653.537478</t>
-  </si>
-  <si>
-    <t>2702.1975608</t>
-  </si>
-  <si>
-    <t>2722.31323958</t>
-  </si>
-  <si>
-    <t>2757.0210979</t>
-  </si>
-  <si>
-    <t>2903.97280731</t>
-  </si>
-  <si>
-    <t>3069.65748226</t>
-  </si>
-  <si>
-    <t>3128.9799031</t>
-  </si>
-  <si>
-    <t>3178.23476059</t>
-  </si>
-  <si>
-    <t>3283.90574588</t>
-  </si>
-  <si>
-    <t>3480.38538978</t>
-  </si>
-  <si>
-    <t>3848.6727198</t>
-  </si>
-  <si>
-    <t>3803.2304836</t>
-  </si>
-  <si>
-    <t>3857.59825712</t>
-  </si>
-  <si>
-    <t>4130.37468013</t>
-  </si>
-  <si>
-    <t>3908.46420291</t>
-  </si>
-  <si>
-    <t>3844.87659386</t>
-  </si>
-  <si>
-    <t>3563.81492724</t>
-  </si>
-  <si>
-    <t>3450.92344542</t>
-  </si>
-  <si>
-    <t>3439.41405158</t>
-  </si>
-  <si>
-    <t>3335.83267829</t>
-  </si>
-  <si>
-    <t>3121.40642309</t>
-  </si>
-  <si>
-    <t>3162.46067957</t>
-  </si>
-  <si>
-    <t>3148.83681872</t>
-  </si>
-  <si>
-    <t>3210.41414126</t>
-  </si>
-  <si>
-    <t>3174.16815872</t>
-  </si>
-  <si>
-    <t>3020.28937503</t>
-  </si>
-  <si>
-    <t>3064.33159348</t>
-  </si>
-  <si>
-    <t>3295.78794175</t>
-  </si>
-  <si>
-    <t>3385.50853007</t>
-  </si>
-  <si>
-    <t>3605.53527525</t>
-  </si>
-  <si>
-    <t>3786.33002828</t>
-  </si>
-  <si>
-    <t>3800.6512255</t>
-  </si>
-  <si>
-    <t>3830.87827271</t>
-  </si>
-  <si>
-    <t>3859.18563988</t>
-  </si>
-  <si>
-    <t>3846.34320459</t>
-  </si>
-  <si>
-    <t>3889.83490012</t>
-  </si>
-  <si>
-    <t>3845.79693232</t>
-  </si>
-  <si>
-    <t>3762.9178251</t>
-  </si>
-  <si>
-    <t>3674.30956266</t>
-  </si>
-  <si>
-    <t>3669.87532193</t>
-  </si>
-  <si>
-    <t>3657.44619053</t>
-  </si>
-  <si>
-    <t>3671.71298452</t>
-  </si>
-  <si>
-    <t>3673.29829971</t>
-  </si>
-  <si>
-    <t>3767.759898</t>
-  </si>
-  <si>
-    <t>3788.5226875</t>
-  </si>
-  <si>
-    <t>3793.70755816</t>
-  </si>
-  <si>
-    <t>3862.95767709</t>
-  </si>
-  <si>
-    <t>3886.30762045</t>
-  </si>
-  <si>
-    <t>3833.36897862</t>
-  </si>
-  <si>
-    <t>3691.41003601</t>
-  </si>
-  <si>
-    <t>3617.03173438</t>
+    <t>867</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>3220</t>
+  </si>
+  <si>
+    <t>3491</t>
+  </si>
+  <si>
+    <t>3934</t>
+  </si>
+  <si>
+    <t>3918</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>4307</t>
+  </si>
+  <si>
+    <t>4339</t>
+  </si>
+  <si>
+    <t>4395</t>
+  </si>
+  <si>
+    <t>4629</t>
+  </si>
+  <si>
+    <t>4894</t>
+  </si>
+  <si>
+    <t>4988</t>
+  </si>
+  <si>
+    <t>5066</t>
+  </si>
+  <si>
+    <t>5235</t>
+  </si>
+  <si>
+    <t>5547</t>
+  </si>
+  <si>
+    <t>6135</t>
+  </si>
+  <si>
+    <t>6062</t>
+  </si>
+  <si>
+    <t>6150</t>
+  </si>
+  <si>
+    <t>6583</t>
+  </si>
+  <si>
+    <t>6229</t>
+  </si>
+  <si>
+    <t>6129</t>
+  </si>
+  <si>
+    <t>5681</t>
+  </si>
+  <si>
+    <t>5501</t>
+  </si>
+  <si>
+    <t>5482</t>
+  </si>
+  <si>
+    <t>5318</t>
+  </si>
+  <si>
+    <t>4975</t>
+  </si>
+  <si>
+    <t>5040</t>
+  </si>
+  <si>
+    <t>5019</t>
+  </si>
+  <si>
+    <t>5117</t>
+  </si>
+  <si>
+    <t>5059</t>
+  </si>
+  <si>
+    <t>4814</t>
+  </si>
+  <si>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>5254</t>
+  </si>
+  <si>
+    <t>5397</t>
+  </si>
+  <si>
+    <t>5748</t>
+  </si>
+  <si>
+    <t>6035</t>
+  </si>
+  <si>
+    <t>6116.58331807709</t>
+  </si>
+  <si>
+    <t>6292.02885816339</t>
+  </si>
+  <si>
+    <t>6414.47499695309</t>
+  </si>
+  <si>
+    <t>6517.0515896976</t>
+  </si>
+  <si>
+    <t>6656.28322158056</t>
+  </si>
+  <si>
+    <t>6648.93315693184</t>
+  </si>
+  <si>
+    <t>6523.63636193961</t>
+  </si>
+  <si>
+    <t>6432.6529564669</t>
+  </si>
+  <si>
+    <t>6485.32282006973</t>
+  </si>
+  <si>
+    <t>6531.28475813797</t>
+  </si>
+  <si>
+    <t>6615.19295637707</t>
+  </si>
+  <si>
+    <t>6660.76302247247</t>
+  </si>
+  <si>
+    <t>6908.66675257455</t>
+  </si>
+  <si>
+    <t>7004.98453646445</t>
+  </si>
+  <si>
+    <t>7073.77027017016</t>
+  </si>
+  <si>
+    <t>7286.96668258715</t>
+  </si>
+  <si>
+    <t>7402.17840857208</t>
+  </si>
+  <si>
+    <t>7353.10712687864</t>
+  </si>
+  <si>
+    <t>7115.37307299018</t>
+  </si>
+  <si>
+    <t>7025.93017720906</t>
+  </si>
+  <si>
+    <t>7141</t>
+  </si>
+  <si>
+    <t>7053</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>7005</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>7084</t>
   </si>
   <si>
     <t>Description</t>
@@ -3618,6 +3636,108 @@
         <v>84</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3633,50 +3753,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
